--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF95F1-CF80-4B3F-A047-299590B3918F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712B72A3-AFA3-4BEB-B95F-3BC3AD1EA36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Purpose</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Hostinger</t>
-  </si>
-  <si>
-    <t>Chatbot</t>
   </si>
   <si>
     <t>Chatbot Abstract</t>
@@ -412,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +446,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -477,14 +474,6 @@
       </c>
       <c r="B7">
         <v>-5845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1900</v>
       </c>
     </row>
   </sheetData>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712B72A3-AFA3-4BEB-B95F-3BC3AD1EA36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2897E4E-180B-41B7-95F7-CD6F88BAF32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Purpose</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Chatbot Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot </t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,6 +479,14 @@
         <v>-5845</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2897E4E-180B-41B7-95F7-CD6F88BAF32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A2843-2186-4B40-8464-1ACE2D7638A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Purpose</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chatbot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotton Disease </t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,6 +490,14 @@
         <v>1900</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A2843-2186-4B40-8464-1ACE2D7638A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E202654F-60A0-4032-BD9D-74E125D42605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Purpose</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cotton Disease </t>
+  </si>
+  <si>
+    <t>Stock Price Projection</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +498,15 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1000</v>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3800</v>
       </c>
     </row>
   </sheetData>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E202654F-60A0-4032-BD9D-74E125D42605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D3D36-0F60-42A8-8D32-3E413F38B30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Purpose</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Stock Price Projection</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,6 +512,14 @@
         <v>3800</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D3D36-0F60-42A8-8D32-3E413F38B30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BAB46-AB26-40B6-A995-20D0E88A6E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Purpose</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Hostinger</t>
   </si>
   <si>
-    <t>Chatbot Abstract</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chatbot </t>
   </si>
   <si>
@@ -61,6 +58,15 @@
   </si>
   <si>
     <t>Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Partial</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,92 +438,114 @@
     <col min="1" max="1" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1750</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1850</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-5845</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
-        <v>-5845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3800</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
         <v>2000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BAB46-AB26-40B6-A995-20D0E88A6E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE15A6A6-5459-4BE2-BB93-0C19333AC6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Purpose</t>
   </si>
@@ -33,40 +33,31 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Pre Owned Cars (Mini)</t>
-  </si>
-  <si>
-    <t>Pre Owned Cars (Major)</t>
-  </si>
-  <si>
-    <t>Pre Owned Cars (UI)</t>
-  </si>
-  <si>
-    <t>Comment Toxicity</t>
-  </si>
-  <si>
-    <t>Hostinger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotton Disease </t>
-  </si>
-  <si>
-    <t>Stock Price Projection</t>
-  </si>
-  <si>
-    <t>Sentiment Analysis</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Partial</t>
+    <t>Pre Owned Cars (Major)(D)</t>
+  </si>
+  <si>
+    <t>Pre Owned Cars (Mini)(D)</t>
+  </si>
+  <si>
+    <t>Pre Owned Cars (UI)(P)</t>
+  </si>
+  <si>
+    <t>Comment Toxicity(P)</t>
+  </si>
+  <si>
+    <t>Hostinger(D)</t>
+  </si>
+  <si>
+    <t>Chatbot (D)</t>
+  </si>
+  <si>
+    <t>Cotton Disease (D)</t>
+  </si>
+  <si>
+    <t>Stock Price Projection(D)</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis(P)</t>
   </si>
 </sst>
 </file>
@@ -427,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,114 +429,84 @@
     <col min="1" max="1" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2000</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>1750</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>1850</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>-5845</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>2000</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>4000</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>3800</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>2000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE15A6A6-5459-4BE2-BB93-0C19333AC6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9D376E-D64D-4E3D-B575-90AD31BB9110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Purpose</t>
   </si>
@@ -33,31 +33,28 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Pre Owned Cars (Major)(D)</t>
-  </si>
-  <si>
-    <t>Pre Owned Cars (Mini)(D)</t>
-  </si>
-  <si>
-    <t>Pre Owned Cars (UI)(P)</t>
-  </si>
-  <si>
-    <t>Comment Toxicity(P)</t>
-  </si>
-  <si>
-    <t>Hostinger(D)</t>
-  </si>
-  <si>
-    <t>Chatbot (D)</t>
-  </si>
-  <si>
-    <t>Cotton Disease (D)</t>
-  </si>
-  <si>
-    <t>Stock Price Projection(D)</t>
-  </si>
-  <si>
-    <t>Sentiment Analysis(P)</t>
+    <t>Sentiment Analysis(Completed)</t>
+  </si>
+  <si>
+    <t>Stock Price Projection(Completed)</t>
+  </si>
+  <si>
+    <t>Cotton Disease (Completed)</t>
+  </si>
+  <si>
+    <t>Chatbot (Completed)</t>
+  </si>
+  <si>
+    <t>Hostinger(Completed)</t>
+  </si>
+  <si>
+    <t>Comment Toxicity(Partial)</t>
+  </si>
+  <si>
+    <t>Pre Owned Cars (UI)(Partial)</t>
+  </si>
+  <si>
+    <t>Pre Owned Cars (Completed)</t>
   </si>
 </sst>
 </file>
@@ -418,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -439,74 +436,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>2000</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>1750</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1850</v>
+        <v>-5845</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>-5845</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>4000</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9D376E-D64D-4E3D-B575-90AD31BB9110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F13C5D-4453-4737-A569-DEB0A41839E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -48,13 +48,13 @@
     <t>Hostinger(Completed)</t>
   </si>
   <si>
-    <t>Comment Toxicity(Partial)</t>
-  </si>
-  <si>
     <t>Pre Owned Cars (UI)(Partial)</t>
   </si>
   <si>
     <t>Pre Owned Cars (Completed)</t>
+  </si>
+  <si>
+    <t>Comment Toxicity(Completed)</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +436,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>4000</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1750</v>
@@ -452,10 +452,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>1850</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F13C5D-4453-4737-A569-DEB0A41839E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5F853-C67A-47B6-8AF7-512AE33BE50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Purpose</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Comment Toxicity(Completed)</t>
+  </si>
+  <si>
+    <t>Potato Disease (Completed)</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,6 +501,14 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5F853-C67A-47B6-8AF7-512AE33BE50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2B23E8-29C9-4A54-8D3E-DC5413A7977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +450,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1750</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2B23E8-29C9-4A54-8D3E-DC5413A7977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D78EC-C1EF-4A1F-AD55-6B2E4C804B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Hostinger(Completed)</t>
   </si>
   <si>
-    <t>Pre Owned Cars (UI)(Partial)</t>
-  </si>
-  <si>
     <t>Pre Owned Cars (Completed)</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Potato Disease (Completed)</t>
+  </si>
+  <si>
+    <t>Pre Owned Cars (UI)(Completed)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>4000</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>3500</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3700</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>4000</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D78EC-C1EF-4A1F-AD55-6B2E4C804B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4313129A-A933-4D27-AF47-3E4A30114C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Purpose</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Pre Owned Cars (UI)(Completed)</t>
+  </si>
+  <si>
+    <t>Tomato Disease (Completed)</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,6 +512,14 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4313129A-A933-4D27-AF47-3E4A30114C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B820AB-836F-4696-BF2D-62D6B3228201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Purpose</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Tomato Disease (Completed)</t>
+  </si>
+  <si>
+    <t>Referrel Money (Paid)</t>
+  </si>
+  <si>
+    <t>First Salary (Paid)</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +526,22 @@
         <v>4300</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B820AB-836F-4696-BF2D-62D6B3228201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D8BA4F-D482-4CB2-98E6-DDA5953C5509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3000</v>
+        <v>-3000</v>
       </c>
     </row>
   </sheetData>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D8BA4F-D482-4CB2-98E6-DDA5953C5509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF99DF9-DC3D-45A3-9CC9-3D421D0E2DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Purpose</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>First Salary (Paid)</t>
+  </si>
+  <si>
+    <t>Fabricated News (Partial)</t>
+  </si>
+  <si>
+    <t>Random Forest CTR (Partial)</t>
+  </si>
+  <si>
+    <t>Research Paper to CSE (Completed)</t>
+  </si>
+  <si>
+    <t>Eng to French (Partial)</t>
+  </si>
+  <si>
+    <t>Cifar-10 (Partial)</t>
   </si>
 </sst>
 </file>
@@ -427,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,6 +557,46 @@
         <v>-3000</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF99DF9-DC3D-45A3-9CC9-3D421D0E2DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388AE54A-DFE9-43A4-9F3A-3E9E0861B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Purpose</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Cifar-10 (Partial)</t>
+  </si>
+  <si>
+    <t>Energy Consumption (Partial)</t>
+  </si>
+  <si>
+    <t>Pre Owned (Partial)</t>
+  </si>
+  <si>
+    <t>Transaction Monitering (Partial)</t>
+  </si>
+  <si>
+    <t>Maize Crop (Partial)</t>
   </si>
 </sst>
 </file>
@@ -442,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,6 +609,38 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\Efficient8\Efficient\financial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388AE54A-DFE9-43A4-9F3A-3E9E0861B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3095AA1-787E-4BBE-84F8-A1B070DCD34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Purpose</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Maize Crop (Partial)</t>
+  </si>
+  <si>
+    <t>Yoga Pose (Partial)</t>
+  </si>
+  <si>
+    <t>Hyperglycemia (Partial)</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +617,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>300</v>
@@ -619,7 +625,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -627,7 +633,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>300</v>
@@ -635,9 +641,25 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>300</v>
       </c>
     </row>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3095AA1-787E-4BBE-84F8-A1B070DCD34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE064AA8-50AC-4A00-832C-DEFFBDE4B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Purpose</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Hyperglycemia (Partial)</t>
+  </si>
+  <si>
+    <t>Movie Recommend (Partial)</t>
+  </si>
+  <si>
+    <t>GDP (Partial)</t>
+  </si>
+  <si>
+    <t>Attrition (Partial)</t>
   </si>
 </sst>
 </file>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,6 +672,30 @@
         <v>300</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE064AA8-50AC-4A00-832C-DEFFBDE4B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0EDC57-A4FB-4EEA-90A9-0B7CFB8EF67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Purpose</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Attrition (Partial)</t>
+  </si>
+  <si>
+    <t>Skin Cancer (Partial)</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,23 +589,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -610,7 +613,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>300</v>
@@ -618,23 +621,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>2000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -642,7 +645,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>300</v>
@@ -650,7 +653,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -658,7 +661,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>300</v>
@@ -666,7 +669,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>300</v>
@@ -674,7 +677,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -682,7 +685,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -690,9 +693,17 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>300</v>
       </c>
     </row>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0EDC57-A4FB-4EEA-90A9-0B7CFB8EF67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999811B4-131D-41E5-9124-6C1F17A4C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Purpose</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Skin Cancer (Partial)</t>
+  </si>
+  <si>
+    <t>Tomato (Partial)</t>
+  </si>
+  <si>
+    <t>Netflix (Partial)</t>
+  </si>
+  <si>
+    <t>Fabricated (Partial)</t>
   </si>
 </sst>
 </file>
@@ -472,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,6 +716,30 @@
         <v>300</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999811B4-131D-41E5-9124-6C1F17A4C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7353E09-9010-44C2-8C10-BFF568A14857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Purpose</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Fabricated (Partial)</t>
+  </si>
+  <si>
+    <t>Sentinal Fraud (Partial)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -740,6 +743,14 @@
         <v>300</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7353E09-9010-44C2-8C10-BFF568A14857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C451265-17E1-4918-A7D6-6911C4F6BD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Purpose</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Sentinal Fraud (Partial)</t>
+  </si>
+  <si>
+    <t>XGBoost (Partial)</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,6 +754,14 @@
         <v>300</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C451265-17E1-4918-A7D6-6911C4F6BD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9A6F7F-C247-491E-AF12-42ABBD3B393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Purpose</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>XGBoost (Partial)</t>
+  </si>
+  <si>
+    <t>Gold Price (Partial)</t>
+  </si>
+  <si>
+    <t>Bank Fraud (Partial)</t>
+  </si>
+  <si>
+    <t>Object Count (Partial)</t>
+  </si>
+  <si>
+    <t>Food Delivery (Partial)</t>
   </si>
 </sst>
 </file>
@@ -487,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,6 +774,38 @@
         <v>300</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9A6F7F-C247-491E-AF12-42ABBD3B393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D04E77-7680-47AB-B361-A4075F3B1E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Purpose</t>
   </si>
@@ -69,76 +69,79 @@
     <t>First Salary (Paid)</t>
   </si>
   <si>
-    <t>Fabricated News (Partial)</t>
-  </si>
-  <si>
-    <t>Random Forest CTR (Partial)</t>
-  </si>
-  <si>
     <t>Research Paper to CSE (Completed)</t>
   </si>
   <si>
-    <t>Eng to French (Partial)</t>
-  </si>
-  <si>
-    <t>Cifar-10 (Partial)</t>
-  </si>
-  <si>
-    <t>Energy Consumption (Partial)</t>
-  </si>
-  <si>
-    <t>Pre Owned (Partial)</t>
-  </si>
-  <si>
-    <t>Transaction Monitering (Partial)</t>
-  </si>
-  <si>
-    <t>Maize Crop (Partial)</t>
-  </si>
-  <si>
-    <t>Yoga Pose (Partial)</t>
-  </si>
-  <si>
-    <t>Hyperglycemia (Partial)</t>
-  </si>
-  <si>
-    <t>Movie Recommend (Partial)</t>
-  </si>
-  <si>
-    <t>GDP (Partial)</t>
-  </si>
-  <si>
-    <t>Attrition (Partial)</t>
-  </si>
-  <si>
-    <t>Skin Cancer (Partial)</t>
-  </si>
-  <si>
-    <t>Tomato (Partial)</t>
-  </si>
-  <si>
-    <t>Netflix (Partial)</t>
-  </si>
-  <si>
-    <t>Fabricated (Partial)</t>
-  </si>
-  <si>
-    <t>Sentinal Fraud (Partial)</t>
-  </si>
-  <si>
-    <t>XGBoost (Partial)</t>
-  </si>
-  <si>
-    <t>Gold Price (Partial)</t>
-  </si>
-  <si>
-    <t>Bank Fraud (Partial)</t>
-  </si>
-  <si>
-    <t>Object Count (Partial)</t>
-  </si>
-  <si>
-    <t>Food Delivery (Partial)</t>
+    <t>Fabricated News (Abstract)</t>
+  </si>
+  <si>
+    <t>Random Forest CTR (Abstract)</t>
+  </si>
+  <si>
+    <t>Cifar-10 (Abstract)</t>
+  </si>
+  <si>
+    <t>Eng to French (Abstract)</t>
+  </si>
+  <si>
+    <t>Yoga Pose (Abstract)</t>
+  </si>
+  <si>
+    <t>Energy Consumption (Abstract)</t>
+  </si>
+  <si>
+    <t>Transaction Monitering (Abstract)</t>
+  </si>
+  <si>
+    <t>Pre Owned (Abstract)</t>
+  </si>
+  <si>
+    <t>Maize Crop (Abstract)</t>
+  </si>
+  <si>
+    <t>Hyperglycemia (Abstract)</t>
+  </si>
+  <si>
+    <t>Movie Recommend (Abstract)</t>
+  </si>
+  <si>
+    <t>GDP (Abstract)</t>
+  </si>
+  <si>
+    <t>Attrition (Abstract)</t>
+  </si>
+  <si>
+    <t>Tomato (Abstract)</t>
+  </si>
+  <si>
+    <t>Netflix (Abstract)</t>
+  </si>
+  <si>
+    <t>Fabricated (Abstract)</t>
+  </si>
+  <si>
+    <t>Sentinal Fraud (Abstract)</t>
+  </si>
+  <si>
+    <t>XGBoost (Abstract)</t>
+  </si>
+  <si>
+    <t>Bank Fraud (Abstract)</t>
+  </si>
+  <si>
+    <t>Gold Price (Abstract)</t>
+  </si>
+  <si>
+    <t>Object Count (Abstract)</t>
+  </si>
+  <si>
+    <t>Food Delivery (Abstract)</t>
+  </si>
+  <si>
+    <t>Next Word Pred (Abstract)</t>
+  </si>
+  <si>
+    <t>Skin Cancer (Abstract)</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +619,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>300</v>
@@ -624,7 +627,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -632,7 +635,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -640,7 +643,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>300</v>
@@ -648,7 +651,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>300</v>
@@ -656,7 +659,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>2000</v>
@@ -664,7 +667,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -672,7 +675,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>300</v>
@@ -688,7 +691,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>300</v>
@@ -696,7 +699,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>300</v>
@@ -736,7 +739,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>300</v>
@@ -744,7 +747,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>300</v>
@@ -752,7 +755,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>300</v>
@@ -760,7 +763,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>300</v>
@@ -768,7 +771,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>300</v>
@@ -776,7 +779,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>300</v>
@@ -792,7 +795,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>300</v>
@@ -800,9 +803,17 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>300</v>
       </c>
     </row>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D04E77-7680-47AB-B361-A4075F3B1E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A297733-7850-42C4-908B-5A99DF5C41B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Purpose</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Skin Cancer (Abstract)</t>
+  </si>
+  <si>
+    <t>Text Summarisation (Abstract)</t>
+  </si>
+  <si>
+    <t>GAN Digit Gen (Abstract)</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,6 +823,22 @@
         <v>300</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A297733-7850-42C4-908B-5A99DF5C41B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490A2DE-C201-4A21-AEDF-2B75BBFA9F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Purpose</t>
   </si>
@@ -69,9 +69,6 @@
     <t>First Salary (Paid)</t>
   </si>
   <si>
-    <t>Research Paper to CSE (Completed)</t>
-  </si>
-  <si>
     <t>Fabricated News (Abstract)</t>
   </si>
   <si>
@@ -148,6 +145,18 @@
   </si>
   <si>
     <t>GAN Digit Gen (Abstract)</t>
+  </si>
+  <si>
+    <t>Research Paper CSE (Completed)</t>
+  </si>
+  <si>
+    <t>Churn Mitigation (Abstract)</t>
+  </si>
+  <si>
+    <t>NLP Based Spam (Abstract)</t>
+  </si>
+  <si>
+    <t>Projects From College</t>
   </si>
 </sst>
 </file>
@@ -508,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,23 +634,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
+      <c r="A15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -649,15 +658,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>300</v>
@@ -665,15 +674,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>2000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -681,7 +690,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>300</v>
@@ -689,7 +698,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -697,7 +706,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>300</v>
@@ -705,7 +714,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>300</v>
@@ -713,7 +722,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -721,7 +730,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -729,7 +738,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>300</v>
@@ -737,7 +746,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>300</v>
@@ -745,7 +754,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>300</v>
@@ -753,7 +762,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>300</v>
@@ -761,7 +770,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>300</v>
@@ -769,7 +778,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>300</v>
@@ -777,7 +786,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>300</v>
@@ -785,7 +794,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>300</v>
@@ -793,7 +802,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>300</v>
@@ -801,7 +810,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>300</v>
@@ -809,7 +818,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>300</v>
@@ -817,7 +826,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>300</v>
@@ -825,7 +834,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>300</v>
@@ -833,10 +842,34 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490A2DE-C201-4A21-AEDF-2B75BBFA9F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE787A-621E-4DF1-9430-60769946D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Purpose</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Projects From College</t>
+  </si>
+  <si>
+    <t>Real Estate Price (Abstract)</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,6 +875,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE787A-621E-4DF1-9430-60769946D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91EC7D-794C-4CFD-A4D1-7F6BB3C988C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Random Forest CTR (Abstract)</t>
   </si>
   <si>
-    <t>Cifar-10 (Abstract)</t>
-  </si>
-  <si>
     <t>Eng to French (Abstract)</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Research Paper CSE (Completed)</t>
   </si>
   <si>
-    <t>Churn Mitigation (Abstract)</t>
-  </si>
-  <si>
     <t>NLP Based Spam (Abstract)</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Real Estate Price (Abstract)</t>
+  </si>
+  <si>
+    <t>Churn Mitigation (Review 1)</t>
+  </si>
+  <si>
+    <t>Cifar-10 (Review 1)</t>
   </si>
 </sst>
 </file>
@@ -224,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +637,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>2000</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -677,15 +677,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>300</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>300</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>300</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>300</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>300</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>300</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>300</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>300</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>300</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>300</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>300</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>300</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>300</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>300</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>300</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>300</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>300</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>300</v>
@@ -861,15 +861,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>100</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>300</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91EC7D-794C-4CFD-A4D1-7F6BB3C988C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A09BB-6746-4741-BAA2-772A71B06FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Pre Owned (Abstract)</t>
   </si>
   <si>
-    <t>Maize Crop (Abstract)</t>
-  </si>
-  <si>
     <t>Hyperglycemia (Abstract)</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Research Paper CSE (Completed)</t>
   </si>
   <si>
-    <t>NLP Based Spam (Abstract)</t>
-  </si>
-  <si>
     <t>Projects From College</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Cifar-10 (Review 1)</t>
+  </si>
+  <si>
+    <t>Maize Crop (Review 1)</t>
+  </si>
+  <si>
+    <t>NLP Based Spam (Review 1)</t>
   </si>
 </sst>
 </file>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +637,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>2000</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>800</v>
@@ -725,15 +725,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>300</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>300</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>300</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>300</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>300</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>300</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>300</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>300</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>300</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>300</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>300</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>300</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>300</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>300</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>300</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>800</v>
@@ -869,15 +869,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>300</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A09BB-6746-4741-BAA2-772A71B06FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F386ECDD-2A16-4313-9B9E-AC27A7C7AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Fabricated News (Abstract)</t>
   </si>
   <si>
-    <t>Random Forest CTR (Abstract)</t>
-  </si>
-  <si>
     <t>Eng to French (Abstract)</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>NLP Based Spam (Review 1)</t>
+  </si>
+  <si>
+    <t>Random Forest CTR (Review 1)</t>
   </si>
 </sst>
 </file>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +637,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>2000</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -669,15 +669,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>800</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>300</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>300</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>300</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>800</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>300</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>300</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>300</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>300</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>300</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>300</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>300</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34">
         <v>300</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <v>300</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>300</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>300</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38">
         <v>300</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39">
         <v>300</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>300</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <v>300</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>800</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>600</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44">
         <v>300</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Efficient8\Efficient\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F386ECDD-2A16-4313-9B9E-AC27A7C7AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3827808A-741B-4E1F-B0BC-882DEC78CC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4ADB5C7-0134-4D64-B9A1-A734B5058EE2}"/>
   </bookViews>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -75,9 +86,6 @@
     <t>Eng to French (Abstract)</t>
   </si>
   <si>
-    <t>Yoga Pose (Abstract)</t>
-  </si>
-  <si>
     <t>Energy Consumption (Abstract)</t>
   </si>
   <si>
@@ -99,9 +107,6 @@
     <t>Attrition (Abstract)</t>
   </si>
   <si>
-    <t>Tomato (Abstract)</t>
-  </si>
-  <si>
     <t>Netflix (Abstract)</t>
   </si>
   <si>
@@ -160,6 +165,12 @@
   </si>
   <si>
     <t>Random Forest CTR (Review 1)</t>
+  </si>
+  <si>
+    <t>Yoga Pose (Review 1)</t>
+  </si>
+  <si>
+    <t>Tomato (Review 1)</t>
   </si>
 </sst>
 </file>
@@ -522,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF58C-BDFD-4D32-87A4-4E2803DBAB93}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +648,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>2000</v>
@@ -645,7 +656,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -653,7 +664,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -669,7 +680,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>800</v>
@@ -677,7 +688,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>800</v>
@@ -693,15 +704,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -709,7 +720,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>300</v>
@@ -717,7 +728,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>300</v>
@@ -725,7 +736,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>800</v>
@@ -733,7 +744,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -741,7 +752,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>300</v>
@@ -749,7 +760,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>300</v>
@@ -757,7 +768,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>300</v>
@@ -765,15 +776,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B30">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>300</v>
@@ -781,7 +792,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>300</v>
@@ -789,7 +800,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>300</v>
@@ -797,7 +808,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>300</v>
@@ -805,7 +816,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <v>300</v>
@@ -813,7 +824,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36">
         <v>300</v>
@@ -821,7 +832,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37">
         <v>300</v>
@@ -829,7 +840,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38">
         <v>300</v>
@@ -837,7 +848,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39">
         <v>300</v>
@@ -845,7 +856,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>300</v>
@@ -853,7 +864,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>300</v>
@@ -861,7 +872,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>800</v>
@@ -869,7 +880,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>600</v>
@@ -877,7 +888,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>300</v>
